--- a/excel_files/1.b.1.1.xlsx
+++ b/excel_files/1.b.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -127,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +545,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -546,7 +556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -557,7 +567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -567,8 +577,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -596,8 +611,23 @@
       <c r="I4" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -608,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -636,8 +666,23 @@
       <c r="I6" s="7">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="7">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="K6" s="7">
+        <v>85.8</v>
+      </c>
+      <c r="L6" s="7">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="M6" s="7">
+        <v>72.2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -665,8 +710,23 @@
       <c r="I7" s="7">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="M7" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -682,8 +742,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -711,8 +776,23 @@
       <c r="I9" s="7">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="K9" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="L9" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="N9" s="7">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -740,8 +820,23 @@
       <c r="I10" s="7">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L10" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="M10" s="7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="N10" s="7">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -757,8 +852,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -786,8 +886,23 @@
       <c r="I12" s="7">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="L12" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>72.8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -815,8 +930,23 @@
       <c r="I13" s="7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="K13" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="M13" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -832,8 +962,13 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -861,8 +996,23 @@
       <c r="I15" s="7">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="7">
+        <v>90.3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>93.4</v>
+      </c>
+      <c r="L15" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="M15" s="7">
+        <v>87.8</v>
+      </c>
+      <c r="N15" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,8 +1040,23 @@
       <c r="I16" s="7">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="L16" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
@@ -907,8 +1072,13 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -936,8 +1106,23 @@
       <c r="I18" s="7">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>66</v>
+      </c>
+      <c r="L18" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="M18" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="N18" s="7">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -965,15 +1150,30 @@
       <c r="I19" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="J19" s="8">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K19" s="8">
+        <v>34</v>
+      </c>
+      <c r="L19" s="8">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M19" s="8">
+        <v>55.1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="7"/>
@@ -983,7 +1183,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -991,7 +1191,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -999,7 +1199,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1007,7 +1207,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1015,7 +1215,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1023,7 +1223,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1031,7 +1231,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1039,7 +1239,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1047,7 +1247,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
